--- a/biology/Botanique/Bambouseraie_en_Cévennes/Bambouseraie_en_Cévennes.xlsx
+++ b/biology/Botanique/Bambouseraie_en_Cévennes/Bambouseraie_en_Cévennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bambouseraie_en_C%C3%A9vennes</t>
+          <t>Bambouseraie_en_Cévennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bambouseraie en Cévennes (connue aussi sous le nom bambouseraie d'Anduze ou bambouseraie de Prafrance) est un jardin exotique situé à Générargues dans le Gard.
@@ -510,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bambouseraie_en_C%C3%A9vennes</t>
+          <t>Bambouseraie_en_Cévennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,14 +540,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bambouseraie de Prafrance fut créée en 1856 par Eugène Mazel (es), un cévenol passionné de botanique. Jeune orphelin, il est confié à son oncle maternel, un riche armateur marseillais. À la mort de celui-ci, il hérite d'une fortune qu'il met au service de sa passion pour l'horticulture et les sciences naturelles. En 1855, il débute l'aménagement du domaine de Prafrance à Générargues et construit les canaux d'irrigation essentiels à la croissance des végétaux. En 1856, il réalise ses premières plantations de bambous Phyllostachys Mitis, Phyllostachys viridiglaucescens et Phyllostachys edulis, et essaie d'acclimater des espèces exotiques en provenance du Japon, d'Amérique du Nord et de la région himalayenne.
 En 1890, Mazel subit des revers de fortune entraînant sa faillite. Ses biens sont hypothéqués et, séparé de son œuvre, il meurt à Marseille. En 1902, Gaston Nègre achète la Bambouseraie et poursuit l'œuvre de Mazel. En 1945, son fils Maurice Nègre, ingénieur agronome, prend la relève de son père et avant-gardiste, ouvre le parc au public moyennant un droit d'entrée.
 En 1953 la Bambouseraie accueille le tournage du film Le Salaire de la peur, pour le tournage de nuit où le camion roule sur la piste en tôle ondulée.
 Le parc fut très gravement endommagé par les inondations du Gardon, en 1958. À la mort de Maurice Nègre, en 1960, c’est son épouse Janine, qui continua l'œuvre de son mari. En 1977, sa fille Muriel et son mari (ingénieur agronome) prirent en main la gestion du domaine et le développement du parc.
 Depuis 2004, c’est Muriel Nègre qui préside à la destinée de la bambouseraie qui devient Jardin remarquable en 2005.
-Les façades et toitures de la ferme de Prafrance, le jardin de Mazel, ainsi que l'ensemble du domaine historique de la bambouseraie avec tout son système hydraulique et les aires de production font l'objet d'une inscription au titre des monuments historiques par arrêté du 24 juillet 2008[1].
+Les façades et toitures de la ferme de Prafrance, le jardin de Mazel, ainsi que l'ensemble du domaine historique de la bambouseraie avec tout son système hydraulique et les aires de production font l'objet d'une inscription au titre des monuments historiques par arrêté du 24 juillet 2008.
 </t>
         </is>
       </c>
